--- a/ALLAN.xlsx
+++ b/ALLAN.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11640" firstSheet="48" activeTab="55"/>
   </bookViews>
@@ -64,7 +69,7 @@
     <sheet name="NOVEMBER 21" sheetId="55" r:id="rId55"/>
     <sheet name="DECEMBER 21" sheetId="56" r:id="rId56"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -791,7 +796,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1312,7 +1317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1347,7 +1352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -28977,7 +28982,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29062,10 +29067,12 @@
         <f t="shared" ref="E5:E10" si="0">C5+D5</f>
         <v>7000</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="60">
+        <v>7000</v>
+      </c>
       <c r="G5" s="59">
         <f t="shared" ref="G5:G8" si="1">E5-F5</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -29115,10 +29122,12 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="60">
+        <v>7000</v>
+      </c>
       <c r="G7" s="59">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -29139,10 +29148,12 @@
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="60">
+        <v>7000</v>
+      </c>
       <c r="G8" s="59">
         <f t="shared" si="1"/>
-        <v>8500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -29187,10 +29198,12 @@
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="60">
+        <v>17000</v>
+      </c>
       <c r="G10" s="59">
         <f>E10-F10</f>
-        <v>17000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -29212,11 +29225,11 @@
       </c>
       <c r="F11" s="87">
         <f>SUM(F5:F10)</f>
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="G11" s="86">
         <f>SUM(G5:G10)</f>
-        <v>46600</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -29331,7 +29344,7 @@
       </c>
       <c r="G19" s="59">
         <f>F11</f>
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
@@ -29491,7 +29504,7 @@
       </c>
       <c r="G30" s="91">
         <f>G19+G20</f>
-        <v>-3027</v>
+        <v>34973</v>
       </c>
       <c r="H30" s="91">
         <f>SUM(H22:H29)</f>
@@ -29499,7 +29512,7 @@
       </c>
       <c r="I30" s="91">
         <f>G30-H30</f>
-        <v>-14187</v>
+        <v>23813</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
